--- a/attendance-files/HRM/HRM (D) Attendance Sheet.xlsx
+++ b/attendance-files/HRM/HRM (D) Attendance Sheet.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="777" uniqueCount="172">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1005" uniqueCount="172">
   <si>
     <t>Indian Institute of Management Indore</t>
   </si>
@@ -1279,8 +1279,10 @@
   </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="6.0" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection activeCell="B8" sqref="B8" pane="bottomLeft"/>
+      <pane xSplit="3.0" ySplit="6.0" topLeftCell="D7" activePane="bottomRight" state="frozen"/>
+      <selection activeCell="D1" sqref="D1" pane="topRight"/>
+      <selection activeCell="A7" sqref="A7" pane="bottomLeft"/>
+      <selection activeCell="D7" sqref="D7" pane="bottomRight"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.0"/>
@@ -1681,11 +1683,11 @@
       </c>
       <c r="E7" s="27">
         <f t="shared" ref="E7:E97" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F97" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>20</v>
@@ -1708,9 +1710,15 @@
       <c r="M7" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="N7" s="31"/>
-      <c r="O7" s="31"/>
-      <c r="P7" s="31"/>
+      <c r="N7" s="30" t="s">
+        <v>21</v>
+      </c>
+      <c r="O7" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="P7" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q7" s="31"/>
       <c r="R7" s="31"/>
       <c r="S7" s="31"/>
@@ -1739,11 +1747,11 @@
       </c>
       <c r="E8" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F8" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G8" s="36" t="s">
         <v>20</v>
@@ -1766,9 +1774,15 @@
       <c r="M8" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="N8" s="38"/>
-      <c r="O8" s="38"/>
-      <c r="P8" s="38"/>
+      <c r="N8" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O8" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P8" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q8" s="38"/>
       <c r="R8" s="38"/>
       <c r="S8" s="38"/>
@@ -1801,7 +1815,7 @@
       </c>
       <c r="F9" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G9" s="36" t="s">
         <v>21</v>
@@ -1824,9 +1838,15 @@
       <c r="M9" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="N9" s="38"/>
-      <c r="O9" s="38"/>
-      <c r="P9" s="38"/>
+      <c r="N9" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O9" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="P9" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q9" s="38"/>
       <c r="R9" s="38"/>
       <c r="S9" s="38"/>
@@ -1859,7 +1879,7 @@
       </c>
       <c r="F10" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G10" s="36" t="s">
         <v>21</v>
@@ -1882,9 +1902,15 @@
       <c r="M10" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="N10" s="38"/>
-      <c r="O10" s="38"/>
-      <c r="P10" s="38"/>
+      <c r="N10" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O10" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="P10" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q10" s="38"/>
       <c r="R10" s="38"/>
       <c r="S10" s="38"/>
@@ -1917,7 +1943,7 @@
       </c>
       <c r="F11" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G11" s="36" t="s">
         <v>20</v>
@@ -1940,9 +1966,15 @@
       <c r="M11" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="N11" s="38"/>
-      <c r="O11" s="38"/>
-      <c r="P11" s="38"/>
+      <c r="N11" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O11" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="P11" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q11" s="38"/>
       <c r="R11" s="38"/>
       <c r="S11" s="38"/>
@@ -1975,7 +2007,7 @@
       </c>
       <c r="F12" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G12" s="36" t="s">
         <v>21</v>
@@ -1998,9 +2030,15 @@
       <c r="M12" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="N12" s="38"/>
-      <c r="O12" s="38"/>
-      <c r="P12" s="38"/>
+      <c r="N12" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O12" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="P12" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q12" s="38"/>
       <c r="R12" s="38"/>
       <c r="S12" s="38"/>
@@ -2033,7 +2071,7 @@
       </c>
       <c r="F13" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G13" s="36" t="s">
         <v>20</v>
@@ -2056,9 +2094,15 @@
       <c r="M13" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="N13" s="38"/>
-      <c r="O13" s="38"/>
-      <c r="P13" s="38"/>
+      <c r="N13" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O13" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="P13" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q13" s="38"/>
       <c r="R13" s="38"/>
       <c r="S13" s="38"/>
@@ -2090,7 +2134,7 @@
       </c>
       <c r="F14" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G14" s="36" t="s">
         <v>20</v>
@@ -2113,9 +2157,15 @@
       <c r="M14" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="N14" s="38"/>
-      <c r="O14" s="38"/>
-      <c r="P14" s="38"/>
+      <c r="N14" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O14" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="P14" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q14" s="38"/>
       <c r="R14" s="38"/>
       <c r="S14" s="38"/>
@@ -2143,11 +2193,11 @@
       </c>
       <c r="E15" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F15" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G15" s="36" t="s">
         <v>20</v>
@@ -2170,9 +2220,15 @@
       <c r="M15" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="N15" s="38"/>
-      <c r="O15" s="38"/>
-      <c r="P15" s="38"/>
+      <c r="N15" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O15" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P15" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q15" s="38"/>
       <c r="R15" s="38"/>
       <c r="S15" s="38"/>
@@ -2201,11 +2257,11 @@
       </c>
       <c r="E16" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G16" s="36" t="s">
         <v>20</v>
@@ -2228,9 +2284,15 @@
       <c r="M16" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="N16" s="38"/>
-      <c r="O16" s="38"/>
-      <c r="P16" s="38"/>
+      <c r="N16" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O16" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P16" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q16" s="38"/>
       <c r="R16" s="38"/>
       <c r="S16" s="38"/>
@@ -2263,7 +2325,7 @@
       </c>
       <c r="F17" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G17" s="36" t="s">
         <v>21</v>
@@ -2286,9 +2348,15 @@
       <c r="M17" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="N17" s="38"/>
-      <c r="O17" s="38"/>
-      <c r="P17" s="38"/>
+      <c r="N17" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O17" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="P17" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q17" s="38"/>
       <c r="R17" s="38"/>
       <c r="S17" s="38"/>
@@ -2321,7 +2389,7 @@
       </c>
       <c r="F18" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G18" s="36" t="s">
         <v>21</v>
@@ -2344,9 +2412,15 @@
       <c r="M18" s="30" t="s">
         <v>20</v>
       </c>
-      <c r="N18" s="38"/>
-      <c r="O18" s="38"/>
-      <c r="P18" s="38"/>
+      <c r="N18" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O18" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="P18" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q18" s="38"/>
       <c r="R18" s="38"/>
       <c r="S18" s="38"/>
@@ -2379,7 +2453,7 @@
       </c>
       <c r="F19" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G19" s="36" t="s">
         <v>20</v>
@@ -2402,9 +2476,15 @@
       <c r="M19" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N19" s="38"/>
-      <c r="O19" s="38"/>
-      <c r="P19" s="38"/>
+      <c r="N19" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O19" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="P19" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q19" s="38"/>
       <c r="R19" s="38"/>
       <c r="S19" s="38"/>
@@ -2433,11 +2513,11 @@
       </c>
       <c r="E20" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F20" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G20" s="36" t="s">
         <v>21</v>
@@ -2460,9 +2540,15 @@
       <c r="M20" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N20" s="38"/>
-      <c r="O20" s="38"/>
-      <c r="P20" s="38"/>
+      <c r="N20" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O20" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P20" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q20" s="38"/>
       <c r="R20" s="38"/>
       <c r="S20" s="38"/>
@@ -2491,11 +2577,11 @@
       </c>
       <c r="E21" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F21" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G21" s="36" t="s">
         <v>20</v>
@@ -2518,9 +2604,15 @@
       <c r="M21" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N21" s="38"/>
-      <c r="O21" s="38"/>
-      <c r="P21" s="38"/>
+      <c r="N21" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O21" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="P21" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q21" s="38"/>
       <c r="R21" s="38"/>
       <c r="S21" s="38"/>
@@ -2549,11 +2641,11 @@
       </c>
       <c r="E22" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F22" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G22" s="36" t="s">
         <v>20</v>
@@ -2576,9 +2668,15 @@
       <c r="M22" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N22" s="38"/>
-      <c r="O22" s="38"/>
-      <c r="P22" s="38"/>
+      <c r="N22" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O22" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P22" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q22" s="38"/>
       <c r="R22" s="38"/>
       <c r="S22" s="38"/>
@@ -2607,11 +2705,11 @@
       </c>
       <c r="E23" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="F23" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G23" s="36" t="s">
         <v>20</v>
@@ -2634,9 +2732,15 @@
       <c r="M23" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N23" s="38"/>
-      <c r="O23" s="38"/>
-      <c r="P23" s="38"/>
+      <c r="N23" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O23" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P23" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q23" s="38"/>
       <c r="R23" s="38"/>
       <c r="S23" s="38"/>
@@ -2665,11 +2769,11 @@
       </c>
       <c r="E24" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F24" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="G24" s="36" t="s">
         <v>21</v>
@@ -2687,14 +2791,20 @@
         <v>20</v>
       </c>
       <c r="L24" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="M24" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N24" s="38"/>
-      <c r="O24" s="38"/>
-      <c r="P24" s="38"/>
+      <c r="N24" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O24" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="P24" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q24" s="38"/>
       <c r="R24" s="38"/>
       <c r="S24" s="38"/>
@@ -2723,11 +2833,11 @@
       </c>
       <c r="E25" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F25" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G25" s="36" t="s">
         <v>21</v>
@@ -2750,9 +2860,15 @@
       <c r="M25" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N25" s="38"/>
-      <c r="O25" s="38"/>
-      <c r="P25" s="38"/>
+      <c r="N25" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O25" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P25" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q25" s="38"/>
       <c r="R25" s="38"/>
       <c r="S25" s="38"/>
@@ -2785,7 +2901,7 @@
       </c>
       <c r="F26" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G26" s="36" t="s">
         <v>20</v>
@@ -2808,9 +2924,15 @@
       <c r="M26" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N26" s="38"/>
-      <c r="O26" s="38"/>
-      <c r="P26" s="38"/>
+      <c r="N26" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O26" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="P26" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q26" s="38"/>
       <c r="R26" s="38"/>
       <c r="S26" s="38"/>
@@ -2839,11 +2961,11 @@
       </c>
       <c r="E27" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F27" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G27" s="36" t="s">
         <v>20</v>
@@ -2866,9 +2988,15 @@
       <c r="M27" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N27" s="38"/>
-      <c r="O27" s="38"/>
-      <c r="P27" s="38"/>
+      <c r="N27" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O27" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="P27" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q27" s="38"/>
       <c r="R27" s="38"/>
       <c r="S27" s="38"/>
@@ -2897,11 +3025,11 @@
       </c>
       <c r="E28" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F28" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G28" s="36" t="s">
         <v>20</v>
@@ -2924,9 +3052,15 @@
       <c r="M28" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N28" s="38"/>
-      <c r="O28" s="38"/>
-      <c r="P28" s="38"/>
+      <c r="N28" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O28" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="P28" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q28" s="38"/>
       <c r="R28" s="38"/>
       <c r="S28" s="38"/>
@@ -2955,11 +3089,11 @@
       </c>
       <c r="E29" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F29" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G29" s="36" t="s">
         <v>20</v>
@@ -2982,9 +3116,15 @@
       <c r="M29" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N29" s="38"/>
-      <c r="O29" s="38"/>
-      <c r="P29" s="38"/>
+      <c r="N29" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O29" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="P29" s="37" t="s">
+        <v>21</v>
+      </c>
       <c r="Q29" s="38"/>
       <c r="R29" s="38"/>
       <c r="S29" s="38"/>
@@ -3017,7 +3157,7 @@
       </c>
       <c r="F30" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G30" s="36" t="s">
         <v>20</v>
@@ -3040,9 +3180,15 @@
       <c r="M30" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N30" s="38"/>
-      <c r="O30" s="38"/>
-      <c r="P30" s="38"/>
+      <c r="N30" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O30" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="P30" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q30" s="38"/>
       <c r="R30" s="38"/>
       <c r="S30" s="38"/>
@@ -3075,7 +3221,7 @@
       </c>
       <c r="F31" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G31" s="36" t="s">
         <v>20</v>
@@ -3098,9 +3244,15 @@
       <c r="M31" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N31" s="38"/>
-      <c r="O31" s="38"/>
-      <c r="P31" s="38"/>
+      <c r="N31" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O31" s="30" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q31" s="38"/>
       <c r="R31" s="38"/>
       <c r="S31" s="38"/>
@@ -3129,11 +3281,11 @@
       </c>
       <c r="E32" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F32" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G32" s="36" t="s">
         <v>20</v>
@@ -3154,9 +3306,15 @@
       <c r="M32" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N32" s="38"/>
-      <c r="O32" s="38"/>
-      <c r="P32" s="38"/>
+      <c r="N32" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O32" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P32" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q32" s="38"/>
       <c r="R32" s="38"/>
       <c r="S32" s="38"/>
@@ -3189,7 +3347,7 @@
       </c>
       <c r="F33" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G33" s="36" t="s">
         <v>20</v>
@@ -3212,9 +3370,15 @@
       <c r="M33" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N33" s="38"/>
-      <c r="O33" s="38"/>
-      <c r="P33" s="38"/>
+      <c r="N33" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O33" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P33" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q33" s="38"/>
       <c r="R33" s="38"/>
       <c r="S33" s="38"/>
@@ -3247,7 +3411,7 @@
       </c>
       <c r="F34" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="G34" s="36" t="s">
         <v>21</v>
@@ -3270,9 +3434,15 @@
       <c r="M34" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N34" s="38"/>
-      <c r="O34" s="38"/>
-      <c r="P34" s="38"/>
+      <c r="N34" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O34" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P34" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q34" s="38"/>
       <c r="R34" s="38"/>
       <c r="S34" s="38"/>
@@ -3301,11 +3471,11 @@
       </c>
       <c r="E35" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G35" s="36" t="s">
         <v>20</v>
@@ -3328,9 +3498,15 @@
       <c r="M35" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N35" s="38"/>
-      <c r="O35" s="38"/>
-      <c r="P35" s="38"/>
+      <c r="N35" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O35" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P35" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q35" s="38"/>
       <c r="R35" s="38"/>
       <c r="S35" s="38"/>
@@ -3359,11 +3535,11 @@
       </c>
       <c r="E36" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F36" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G36" s="36" t="s">
         <v>20</v>
@@ -3386,9 +3562,15 @@
       <c r="M36" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N36" s="38"/>
-      <c r="O36" s="38"/>
-      <c r="P36" s="38"/>
+      <c r="N36" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O36" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P36" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q36" s="38"/>
       <c r="R36" s="38"/>
       <c r="S36" s="38"/>
@@ -3421,7 +3603,7 @@
       </c>
       <c r="F37" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G37" s="36" t="s">
         <v>20</v>
@@ -3444,9 +3626,15 @@
       <c r="M37" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N37" s="38"/>
-      <c r="O37" s="38"/>
-      <c r="P37" s="38"/>
+      <c r="N37" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O37" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P37" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q37" s="38"/>
       <c r="R37" s="38"/>
       <c r="S37" s="38"/>
@@ -3479,7 +3667,7 @@
       </c>
       <c r="F38" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G38" s="36" t="s">
         <v>20</v>
@@ -3502,9 +3690,15 @@
       <c r="M38" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N38" s="38"/>
-      <c r="O38" s="38"/>
-      <c r="P38" s="38"/>
+      <c r="N38" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O38" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P38" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q38" s="38"/>
       <c r="R38" s="38"/>
       <c r="S38" s="38"/>
@@ -3533,11 +3727,11 @@
       </c>
       <c r="E39" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F39" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G39" s="36" t="s">
         <v>20</v>
@@ -3560,9 +3754,15 @@
       <c r="M39" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N39" s="38"/>
-      <c r="O39" s="38"/>
-      <c r="P39" s="38"/>
+      <c r="N39" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O39" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P39" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q39" s="38"/>
       <c r="R39" s="38"/>
       <c r="S39" s="38"/>
@@ -3591,11 +3791,11 @@
       </c>
       <c r="E40" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F40" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G40" s="36" t="s">
         <v>21</v>
@@ -3618,9 +3818,15 @@
       <c r="M40" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N40" s="38"/>
-      <c r="O40" s="38"/>
-      <c r="P40" s="38"/>
+      <c r="N40" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O40" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P40" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q40" s="38"/>
       <c r="R40" s="38"/>
       <c r="S40" s="38"/>
@@ -3649,11 +3855,11 @@
       </c>
       <c r="E41" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F41" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G41" s="36" t="s">
         <v>20</v>
@@ -3676,9 +3882,15 @@
       <c r="M41" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N41" s="38"/>
-      <c r="O41" s="38"/>
-      <c r="P41" s="38"/>
+      <c r="N41" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O41" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P41" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q41" s="38"/>
       <c r="R41" s="38"/>
       <c r="S41" s="38"/>
@@ -3711,7 +3923,7 @@
       </c>
       <c r="F42" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G42" s="36" t="s">
         <v>21</v>
@@ -3734,9 +3946,15 @@
       <c r="M42" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N42" s="38"/>
-      <c r="O42" s="38"/>
-      <c r="P42" s="38"/>
+      <c r="N42" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O42" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P42" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q42" s="38"/>
       <c r="R42" s="38"/>
       <c r="S42" s="38"/>
@@ -3769,7 +3987,7 @@
       </c>
       <c r="F43" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G43" s="36" t="s">
         <v>20</v>
@@ -3792,9 +4010,15 @@
       <c r="M43" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N43" s="38"/>
-      <c r="O43" s="38"/>
-      <c r="P43" s="38"/>
+      <c r="N43" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O43" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P43" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q43" s="38"/>
       <c r="R43" s="38"/>
       <c r="S43" s="38"/>
@@ -3822,11 +4046,11 @@
       </c>
       <c r="E44" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F44" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G44" s="36" t="s">
         <v>20</v>
@@ -3849,9 +4073,15 @@
       <c r="M44" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N44" s="38"/>
-      <c r="O44" s="38"/>
-      <c r="P44" s="38"/>
+      <c r="N44" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O44" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P44" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q44" s="38"/>
       <c r="R44" s="38"/>
       <c r="S44" s="38"/>
@@ -3883,7 +4113,7 @@
       </c>
       <c r="F45" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G45" s="36" t="s">
         <v>20</v>
@@ -3906,9 +4136,15 @@
       <c r="M45" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N45" s="38"/>
-      <c r="O45" s="38"/>
-      <c r="P45" s="38"/>
+      <c r="N45" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O45" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P45" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q45" s="38"/>
       <c r="R45" s="38"/>
       <c r="S45" s="38"/>
@@ -3937,11 +4173,11 @@
       </c>
       <c r="E46" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F46" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G46" s="36" t="s">
         <v>21</v>
@@ -3964,9 +4200,15 @@
       <c r="M46" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N46" s="38"/>
-      <c r="O46" s="38"/>
-      <c r="P46" s="38"/>
+      <c r="N46" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O46" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P46" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q46" s="38"/>
       <c r="R46" s="38"/>
       <c r="S46" s="38"/>
@@ -3999,7 +4241,7 @@
       </c>
       <c r="F47" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G47" s="36" t="s">
         <v>20</v>
@@ -4022,9 +4264,15 @@
       <c r="M47" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N47" s="38"/>
-      <c r="O47" s="38"/>
-      <c r="P47" s="38"/>
+      <c r="N47" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O47" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P47" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q47" s="38"/>
       <c r="R47" s="38"/>
       <c r="S47" s="38"/>
@@ -4057,7 +4305,7 @@
       </c>
       <c r="F48" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G48" s="36" t="s">
         <v>20</v>
@@ -4080,9 +4328,15 @@
       <c r="M48" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N48" s="38"/>
-      <c r="O48" s="38"/>
-      <c r="P48" s="38"/>
+      <c r="N48" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O48" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P48" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q48" s="38"/>
       <c r="R48" s="38"/>
       <c r="S48" s="38"/>
@@ -4111,11 +4365,11 @@
       </c>
       <c r="E49" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F49" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G49" s="36" t="s">
         <v>20</v>
@@ -4138,9 +4392,15 @@
       <c r="M49" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N49" s="38"/>
-      <c r="O49" s="38"/>
-      <c r="P49" s="38"/>
+      <c r="N49" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O49" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P49" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q49" s="38"/>
       <c r="R49" s="38"/>
       <c r="S49" s="38"/>
@@ -4173,7 +4433,7 @@
       </c>
       <c r="F50" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G50" s="36" t="s">
         <v>20</v>
@@ -4196,9 +4456,15 @@
       <c r="M50" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N50" s="38"/>
-      <c r="O50" s="38"/>
-      <c r="P50" s="38"/>
+      <c r="N50" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O50" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P50" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q50" s="38"/>
       <c r="R50" s="38"/>
       <c r="S50" s="38"/>
@@ -4227,11 +4493,11 @@
       </c>
       <c r="E51" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F51" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G51" s="36" t="s">
         <v>21</v>
@@ -4254,9 +4520,15 @@
       <c r="M51" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N51" s="38"/>
-      <c r="O51" s="38"/>
-      <c r="P51" s="38"/>
+      <c r="N51" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O51" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P51" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q51" s="38"/>
       <c r="R51" s="38"/>
       <c r="S51" s="38"/>
@@ -4285,11 +4557,11 @@
       </c>
       <c r="E52" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F52" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G52" s="36" t="s">
         <v>21</v>
@@ -4312,9 +4584,15 @@
       <c r="M52" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N52" s="38"/>
-      <c r="O52" s="38"/>
-      <c r="P52" s="38"/>
+      <c r="N52" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O52" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P52" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q52" s="38"/>
       <c r="R52" s="38"/>
       <c r="S52" s="38"/>
@@ -4347,7 +4625,7 @@
       </c>
       <c r="F53" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G53" s="36" t="s">
         <v>21</v>
@@ -4370,9 +4648,15 @@
       <c r="M53" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N53" s="38"/>
-      <c r="O53" s="38"/>
-      <c r="P53" s="38"/>
+      <c r="N53" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O53" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P53" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q53" s="38"/>
       <c r="R53" s="38"/>
       <c r="S53" s="38"/>
@@ -4405,7 +4689,7 @@
       </c>
       <c r="F54" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G54" s="36" t="s">
         <v>20</v>
@@ -4428,9 +4712,15 @@
       <c r="M54" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N54" s="38"/>
-      <c r="O54" s="38"/>
-      <c r="P54" s="38"/>
+      <c r="N54" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O54" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P54" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q54" s="38"/>
       <c r="R54" s="38"/>
       <c r="S54" s="38"/>
@@ -4463,7 +4753,7 @@
       </c>
       <c r="F55" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G55" s="36" t="s">
         <v>20</v>
@@ -4486,9 +4776,15 @@
       <c r="M55" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N55" s="38"/>
-      <c r="O55" s="38"/>
-      <c r="P55" s="38"/>
+      <c r="N55" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O55" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P55" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q55" s="38"/>
       <c r="R55" s="38"/>
       <c r="S55" s="38"/>
@@ -4517,11 +4813,11 @@
       </c>
       <c r="E56" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F56" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="G56" s="36" t="s">
         <v>20</v>
@@ -4544,9 +4840,15 @@
       <c r="M56" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N56" s="38"/>
-      <c r="O56" s="38"/>
-      <c r="P56" s="38"/>
+      <c r="N56" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O56" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P56" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q56" s="38"/>
       <c r="R56" s="38"/>
       <c r="S56" s="38"/>
@@ -4579,7 +4881,7 @@
       </c>
       <c r="F57" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="G57" s="36" t="s">
         <v>21</v>
@@ -4602,9 +4904,15 @@
       <c r="M57" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N57" s="38"/>
-      <c r="O57" s="38"/>
-      <c r="P57" s="38"/>
+      <c r="N57" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O57" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P57" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q57" s="38"/>
       <c r="R57" s="38"/>
       <c r="S57" s="38"/>
@@ -4637,7 +4945,7 @@
       </c>
       <c r="F58" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G58" s="36" t="s">
         <v>20</v>
@@ -4660,9 +4968,15 @@
       <c r="M58" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N58" s="38"/>
-      <c r="O58" s="38"/>
-      <c r="P58" s="38"/>
+      <c r="N58" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O58" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P58" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q58" s="38"/>
       <c r="R58" s="38"/>
       <c r="S58" s="38"/>
@@ -4691,11 +5005,11 @@
       </c>
       <c r="E59" s="27">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F59" s="35">
         <f t="shared" si="2"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="G59" s="36" t="s">
         <v>21</v>
@@ -4718,9 +5032,15 @@
       <c r="M59" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N59" s="38"/>
-      <c r="O59" s="38"/>
-      <c r="P59" s="38"/>
+      <c r="N59" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O59" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P59" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q59" s="38"/>
       <c r="R59" s="38"/>
       <c r="S59" s="38"/>
@@ -4749,11 +5069,11 @@
       </c>
       <c r="E60" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F60" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G60" s="36" t="s">
         <v>20</v>
@@ -4776,9 +5096,15 @@
       <c r="M60" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N60" s="38"/>
-      <c r="O60" s="38"/>
-      <c r="P60" s="38"/>
+      <c r="N60" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O60" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P60" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q60" s="38"/>
       <c r="R60" s="38"/>
       <c r="S60" s="38"/>
@@ -4807,11 +5133,11 @@
       </c>
       <c r="E61" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F61" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G61" s="36" t="s">
         <v>20</v>
@@ -4834,9 +5160,15 @@
       <c r="M61" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N61" s="38"/>
-      <c r="O61" s="38"/>
-      <c r="P61" s="38"/>
+      <c r="N61" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O61" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P61" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q61" s="38"/>
       <c r="R61" s="38"/>
       <c r="S61" s="38"/>
@@ -4869,7 +5201,7 @@
       </c>
       <c r="F62" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G62" s="36" t="s">
         <v>20</v>
@@ -4892,9 +5224,15 @@
       <c r="M62" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N62" s="38"/>
-      <c r="O62" s="38"/>
-      <c r="P62" s="38"/>
+      <c r="N62" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O62" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P62" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q62" s="38"/>
       <c r="R62" s="38"/>
       <c r="S62" s="38"/>
@@ -4927,7 +5265,7 @@
       </c>
       <c r="F63" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G63" s="36" t="s">
         <v>20</v>
@@ -4950,9 +5288,15 @@
       <c r="M63" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N63" s="38"/>
-      <c r="O63" s="38"/>
-      <c r="P63" s="38"/>
+      <c r="N63" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O63" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P63" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q63" s="38"/>
       <c r="R63" s="38"/>
       <c r="S63" s="38"/>
@@ -4985,7 +5329,7 @@
       </c>
       <c r="F64" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G64" s="36" t="s">
         <v>21</v>
@@ -5008,9 +5352,15 @@
       <c r="M64" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N64" s="38"/>
-      <c r="O64" s="38"/>
-      <c r="P64" s="38"/>
+      <c r="N64" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O64" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P64" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q64" s="38"/>
       <c r="R64" s="38"/>
       <c r="S64" s="38"/>
@@ -5039,11 +5389,11 @@
       </c>
       <c r="E65" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F65" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="G65" s="36" t="s">
         <v>21</v>
@@ -5066,9 +5416,15 @@
       <c r="M65" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N65" s="38"/>
-      <c r="O65" s="38"/>
-      <c r="P65" s="38"/>
+      <c r="N65" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O65" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P65" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q65" s="38"/>
       <c r="R65" s="38"/>
       <c r="S65" s="38"/>
@@ -5101,7 +5457,7 @@
       </c>
       <c r="F66" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G66" s="36" t="s">
         <v>21</v>
@@ -5124,9 +5480,15 @@
       <c r="M66" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N66" s="38"/>
-      <c r="O66" s="38"/>
-      <c r="P66" s="38"/>
+      <c r="N66" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O66" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P66" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q66" s="38"/>
       <c r="R66" s="38"/>
       <c r="S66" s="38"/>
@@ -5159,7 +5521,7 @@
       </c>
       <c r="F67" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G67" s="36" t="s">
         <v>20</v>
@@ -5180,11 +5542,17 @@
         <v>20</v>
       </c>
       <c r="M67" s="37" t="s">
-        <v>21</v>
-      </c>
-      <c r="N67" s="38"/>
-      <c r="O67" s="38"/>
-      <c r="P67" s="38"/>
+        <v>20</v>
+      </c>
+      <c r="N67" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O67" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P67" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q67" s="38"/>
       <c r="R67" s="38"/>
       <c r="S67" s="38"/>
@@ -5213,12 +5581,12 @@
       </c>
       <c r="E68" s="27">
         <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="F68" s="35">
+        <f t="shared" si="2"/>
         <v>4</v>
       </c>
-      <c r="F68" s="35">
-        <f t="shared" si="2"/>
-        <v>3</v>
-      </c>
       <c r="G68" s="36" t="s">
         <v>20</v>
       </c>
@@ -5240,9 +5608,15 @@
       <c r="M68" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N68" s="38"/>
-      <c r="O68" s="38"/>
-      <c r="P68" s="38"/>
+      <c r="N68" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O68" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P68" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q68" s="38"/>
       <c r="R68" s="38"/>
       <c r="S68" s="38"/>
@@ -5275,7 +5649,7 @@
       </c>
       <c r="F69" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G69" s="36" t="s">
         <v>20</v>
@@ -5298,9 +5672,15 @@
       <c r="M69" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N69" s="38"/>
-      <c r="O69" s="38"/>
-      <c r="P69" s="38"/>
+      <c r="N69" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O69" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P69" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q69" s="38"/>
       <c r="R69" s="38"/>
       <c r="S69" s="38"/>
@@ -5329,11 +5709,11 @@
       </c>
       <c r="E70" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F70" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G70" s="36" t="s">
         <v>20</v>
@@ -5356,9 +5736,15 @@
       <c r="M70" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N70" s="38"/>
-      <c r="O70" s="38"/>
-      <c r="P70" s="38"/>
+      <c r="N70" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O70" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P70" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q70" s="38"/>
       <c r="R70" s="38"/>
       <c r="S70" s="38"/>
@@ -5391,7 +5777,7 @@
       </c>
       <c r="F71" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="G71" s="36" t="s">
         <v>20</v>
@@ -5414,9 +5800,15 @@
       <c r="M71" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N71" s="38"/>
-      <c r="O71" s="38"/>
-      <c r="P71" s="38"/>
+      <c r="N71" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O71" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P71" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q71" s="38"/>
       <c r="R71" s="38"/>
       <c r="S71" s="38"/>
@@ -5445,11 +5837,11 @@
       </c>
       <c r="E72" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F72" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G72" s="36" t="s">
         <v>20</v>
@@ -5472,9 +5864,15 @@
       <c r="M72" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N72" s="38"/>
-      <c r="O72" s="38"/>
-      <c r="P72" s="38"/>
+      <c r="N72" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O72" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P72" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q72" s="38"/>
       <c r="R72" s="38"/>
       <c r="S72" s="38"/>
@@ -5503,11 +5901,11 @@
       </c>
       <c r="E73" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F73" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="G73" s="36" t="s">
         <v>20</v>
@@ -5530,9 +5928,15 @@
       <c r="M73" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N73" s="38"/>
-      <c r="O73" s="38"/>
-      <c r="P73" s="38"/>
+      <c r="N73" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O73" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P73" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q73" s="38"/>
       <c r="R73" s="38"/>
       <c r="S73" s="38"/>
@@ -5565,7 +5969,7 @@
       </c>
       <c r="F74" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G74" s="36" t="s">
         <v>20</v>
@@ -5588,9 +5992,15 @@
       <c r="M74" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N74" s="38"/>
-      <c r="O74" s="38"/>
-      <c r="P74" s="38"/>
+      <c r="N74" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O74" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P74" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q74" s="38"/>
       <c r="R74" s="38"/>
       <c r="S74" s="38"/>
@@ -5619,11 +6029,11 @@
       </c>
       <c r="E75" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F75" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G75" s="36" t="s">
         <v>20</v>
@@ -5646,9 +6056,15 @@
       <c r="M75" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N75" s="38"/>
-      <c r="O75" s="38"/>
-      <c r="P75" s="38"/>
+      <c r="N75" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="O75" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P75" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q75" s="38"/>
       <c r="R75" s="38"/>
       <c r="S75" s="38"/>
@@ -5681,7 +6097,7 @@
       </c>
       <c r="F76" s="35">
         <f t="shared" si="2"/>
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G76" s="36" t="s">
         <v>20</v>
@@ -5704,9 +6120,15 @@
       <c r="M76" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N76" s="38"/>
-      <c r="O76" s="38"/>
-      <c r="P76" s="38"/>
+      <c r="N76" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O76" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P76" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q76" s="38"/>
       <c r="R76" s="38"/>
       <c r="S76" s="38"/>
@@ -5735,11 +6157,11 @@
       </c>
       <c r="E77" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F77" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="G77" s="36" t="s">
         <v>20</v>
@@ -5762,9 +6184,15 @@
       <c r="M77" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N77" s="38"/>
-      <c r="O77" s="38"/>
-      <c r="P77" s="38"/>
+      <c r="N77" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O77" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P77" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q77" s="38"/>
       <c r="R77" s="38"/>
       <c r="S77" s="38"/>
@@ -5797,7 +6225,7 @@
       </c>
       <c r="F78" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="G78" s="36" t="s">
         <v>21</v>
@@ -5820,9 +6248,15 @@
       <c r="M78" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N78" s="38"/>
-      <c r="O78" s="38"/>
-      <c r="P78" s="38"/>
+      <c r="N78" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O78" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P78" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q78" s="38"/>
       <c r="R78" s="38"/>
       <c r="S78" s="38"/>
@@ -5855,7 +6289,7 @@
       </c>
       <c r="F79" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G79" s="36" t="s">
         <v>20</v>
@@ -5878,9 +6312,15 @@
       <c r="M79" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N79" s="38"/>
-      <c r="O79" s="38"/>
-      <c r="P79" s="38"/>
+      <c r="N79" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O79" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P79" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q79" s="38"/>
       <c r="R79" s="38"/>
       <c r="S79" s="38"/>
@@ -5913,7 +6353,7 @@
       </c>
       <c r="F80" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G80" s="36" t="s">
         <v>20</v>
@@ -5936,9 +6376,15 @@
       <c r="M80" s="37" t="s">
         <v>21</v>
       </c>
-      <c r="N80" s="38"/>
-      <c r="O80" s="38"/>
-      <c r="P80" s="38"/>
+      <c r="N80" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O80" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P80" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q80" s="38"/>
       <c r="R80" s="38"/>
       <c r="S80" s="38"/>
@@ -5971,7 +6417,7 @@
       </c>
       <c r="F81" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="G81" s="36" t="s">
         <v>20</v>
@@ -5994,9 +6440,15 @@
       <c r="M81" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N81" s="38"/>
-      <c r="O81" s="38"/>
-      <c r="P81" s="38"/>
+      <c r="N81" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O81" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="P81" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q81" s="38"/>
       <c r="R81" s="38"/>
       <c r="S81" s="38"/>
@@ -6025,11 +6477,11 @@
       </c>
       <c r="E82" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F82" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="G82" s="36" t="s">
         <v>20</v>
@@ -6052,9 +6504,15 @@
       <c r="M82" s="37" t="s">
         <v>20</v>
       </c>
-      <c r="N82" s="38"/>
-      <c r="O82" s="38"/>
-      <c r="P82" s="38"/>
+      <c r="N82" s="37" t="s">
+        <v>20</v>
+      </c>
+      <c r="O82" s="37" t="s">
+        <v>21</v>
+      </c>
+      <c r="P82" s="30" t="s">
+        <v>20</v>
+      </c>
       <c r="Q82" s="38"/>
       <c r="R82" s="38"/>
       <c r="S82" s="38"/>

--- a/attendance-files/HRM/HRM (D) Attendance Sheet.xlsx
+++ b/attendance-files/HRM/HRM (D) Attendance Sheet.xlsx
@@ -1434,10 +1434,7 @@
         <f t="array" ref="M4">IFERROR(XLOOKUP(CONCATENATE($F$4," ",$C$5," ",M6),#REF!,#REF!),"")</f>
         <v/>
       </c>
-      <c r="N4" s="13" t="str">
-        <f t="array" ref="N4">IFERROR(XLOOKUP(CONCATENATE($F$4," ",$C$5," ",N6),#REF!,#REF!),"")</f>
-        <v/>
-      </c>
+      <c r="N4" s="13"/>
       <c r="O4" s="13" t="str">
         <f t="array" ref="O4">IFERROR(XLOOKUP(CONCATENATE($F$4," ",$C$5," ",O6),#REF!,#REF!),"")</f>
         <v/>
@@ -1531,10 +1528,7 @@
         <f t="array" ref="M5">IFERROR(XLOOKUP(CONCATENATE($F$4," ",$C$5," ",M6),#REF!,#REF!),"")</f>
         <v/>
       </c>
-      <c r="N5" s="17" t="str">
-        <f t="array" ref="N5">IFERROR(XLOOKUP(CONCATENATE($F$4," ",$C$5," ",N6),#REF!,#REF!),"")</f>
-        <v/>
-      </c>
+      <c r="N5" s="17"/>
       <c r="O5" s="17" t="str">
         <f t="array" ref="O5">IFERROR(XLOOKUP(CONCATENATE($F$4," ",$C$5," ",O6),#REF!,#REF!),"")</f>
         <v/>
@@ -1625,9 +1619,7 @@
       <c r="M6" s="22">
         <v>7.0</v>
       </c>
-      <c r="N6" s="22">
-        <v>8.0</v>
-      </c>
+      <c r="N6" s="22"/>
       <c r="O6" s="22">
         <v>9.0</v>
       </c>
@@ -1683,11 +1675,11 @@
       </c>
       <c r="E7" s="27">
         <f t="shared" ref="E7:E97" si="1">IF(D7&gt;0,COUNTIF(G7:Z7,"A"),"")</f>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F7" s="28">
         <f t="shared" ref="F7:F97" si="2">IF(D7&gt;0,COUNTIF(G7:Z7,"P"),"")</f>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G7" s="29" t="s">
         <v>20</v>
@@ -1711,7 +1703,7 @@
         <v>20</v>
       </c>
       <c r="N7" s="30" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O7" s="30" t="s">
         <v>20</v>
@@ -2257,11 +2249,11 @@
       </c>
       <c r="E16" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G16" s="36" t="s">
         <v>20</v>
@@ -2285,7 +2277,7 @@
         <v>20</v>
       </c>
       <c r="N16" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O16" s="37" t="s">
         <v>21</v>
@@ -2513,11 +2505,11 @@
       </c>
       <c r="E20" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="F20" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="G20" s="36" t="s">
         <v>21</v>
@@ -2541,7 +2533,7 @@
         <v>21</v>
       </c>
       <c r="N20" s="37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O20" s="37" t="s">
         <v>21</v>
@@ -2577,11 +2569,11 @@
       </c>
       <c r="E21" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F21" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G21" s="36" t="s">
         <v>20</v>
@@ -2605,7 +2597,7 @@
         <v>20</v>
       </c>
       <c r="N21" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O21" s="30" t="s">
         <v>20</v>
@@ -2727,13 +2719,13 @@
         <v>20</v>
       </c>
       <c r="L23" s="37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="M23" s="37" t="s">
         <v>20</v>
       </c>
       <c r="N23" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O23" s="37" t="s">
         <v>21</v>
@@ -2961,11 +2953,11 @@
       </c>
       <c r="E27" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F27" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G27" s="36" t="s">
         <v>20</v>
@@ -2989,7 +2981,7 @@
         <v>20</v>
       </c>
       <c r="N27" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O27" s="30" t="s">
         <v>20</v>
@@ -3025,11 +3017,11 @@
       </c>
       <c r="E28" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F28" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G28" s="36" t="s">
         <v>20</v>
@@ -3053,7 +3045,7 @@
         <v>21</v>
       </c>
       <c r="N28" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O28" s="30" t="s">
         <v>20</v>
@@ -3407,11 +3399,11 @@
       </c>
       <c r="E34" s="27">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F34" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G34" s="36" t="s">
         <v>21</v>
@@ -3435,7 +3427,7 @@
         <v>20</v>
       </c>
       <c r="N34" s="37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O34" s="37" t="s">
         <v>20</v>
@@ -3535,11 +3527,11 @@
       </c>
       <c r="E36" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F36" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G36" s="36" t="s">
         <v>20</v>
@@ -3563,7 +3555,7 @@
         <v>20</v>
       </c>
       <c r="N36" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O36" s="37" t="s">
         <v>20</v>
@@ -3663,11 +3655,11 @@
       </c>
       <c r="E38" s="27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F38" s="35">
         <f t="shared" si="2"/>
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G38" s="36" t="s">
         <v>20</v>
@@ -3691,7 +3683,7 @@
         <v>20</v>
       </c>
       <c r="N38" s="37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O38" s="37" t="s">
         <v>20</v>
@@ -3791,11 +3783,11 @@
       </c>
       <c r="E40" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F40" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G40" s="36" t="s">
         <v>21</v>
@@ -3819,7 +3811,7 @@
         <v>20</v>
       </c>
       <c r="N40" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O40" s="37" t="s">
         <v>20</v>
@@ -3855,11 +3847,11 @@
       </c>
       <c r="E41" s="27">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F41" s="35">
         <f t="shared" si="2"/>
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="G41" s="36" t="s">
         <v>20</v>
@@ -3883,7 +3875,7 @@
         <v>20</v>
       </c>
       <c r="N41" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O41" s="37" t="s">
         <v>20</v>
@@ -4173,11 +4165,11 @@
       </c>
       <c r="E46" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F46" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G46" s="36" t="s">
         <v>21</v>
@@ -4201,7 +4193,7 @@
         <v>20</v>
       </c>
       <c r="N46" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O46" s="37" t="s">
         <v>20</v>
@@ -4365,11 +4357,11 @@
       </c>
       <c r="E49" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F49" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G49" s="36" t="s">
         <v>20</v>
@@ -4393,7 +4385,7 @@
         <v>20</v>
       </c>
       <c r="N49" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O49" s="37" t="s">
         <v>20</v>
@@ -4493,11 +4485,11 @@
       </c>
       <c r="E51" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F51" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G51" s="36" t="s">
         <v>21</v>
@@ -4521,7 +4513,7 @@
         <v>21</v>
       </c>
       <c r="N51" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O51" s="37" t="s">
         <v>20</v>
@@ -4685,11 +4677,11 @@
       </c>
       <c r="E54" s="27">
         <f t="shared" si="1"/>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F54" s="35">
         <f t="shared" si="2"/>
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="G54" s="36" t="s">
         <v>20</v>
@@ -4713,7 +4705,7 @@
         <v>20</v>
       </c>
       <c r="N54" s="37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O54" s="37" t="s">
         <v>20</v>
@@ -4813,11 +4805,11 @@
       </c>
       <c r="E56" s="27">
         <f t="shared" si="1"/>
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F56" s="35">
         <f t="shared" si="2"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="G56" s="36" t="s">
         <v>20</v>
@@ -4841,7 +4833,7 @@
         <v>20</v>
       </c>
       <c r="N56" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O56" s="37" t="s">
         <v>20</v>
@@ -5005,11 +4997,11 @@
       </c>
       <c r="E59" s="27">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F59" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G59" s="36" t="s">
         <v>21</v>
@@ -5033,7 +5025,7 @@
         <v>20</v>
       </c>
       <c r="N59" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O59" s="37" t="s">
         <v>20</v>
@@ -5389,11 +5381,11 @@
       </c>
       <c r="E65" s="27">
         <f t="shared" si="1"/>
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="F65" s="35">
         <f t="shared" si="2"/>
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="G65" s="36" t="s">
         <v>21</v>
@@ -5417,7 +5409,7 @@
         <v>21</v>
       </c>
       <c r="N65" s="37" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="O65" s="37" t="s">
         <v>21</v>
@@ -5581,11 +5573,11 @@
       </c>
       <c r="E68" s="27">
         <f t="shared" si="1"/>
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F68" s="35">
         <f t="shared" si="2"/>
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="G68" s="36" t="s">
         <v>20</v>
@@ -5609,7 +5601,7 @@
         <v>21</v>
       </c>
       <c r="N68" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O68" s="37" t="s">
         <v>21</v>
@@ -5901,11 +5893,11 @@
       </c>
       <c r="E73" s="27">
         <f t="shared" si="1"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F73" s="35">
         <f t="shared" si="2"/>
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="G73" s="36" t="s">
         <v>20</v>
@@ -5929,7 +5921,7 @@
         <v>21</v>
       </c>
       <c r="N73" s="37" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O73" s="37" t="s">
         <v>20</v>
